--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
@@ -23380,428 +23380,598 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="119" t="n">
-        <v>1.53911959147465</v>
+      <c r="A2" s="119" t="inlineStr">
+        <is>
+          <t>21.604320862723988</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="119" t="n">
-        <v>1.35586042977909</v>
+      <c r="A3" s="119" t="inlineStr">
+        <is>
+          <t>25.100306520923333</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="119" t="n">
-        <v>1.36996235609235</v>
+      <c r="A4" s="119" t="inlineStr">
+        <is>
+          <t>23.686451016109082</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="119" t="n">
-        <v>1.42661281950653</v>
+      <c r="A5" s="119" t="inlineStr">
+        <is>
+          <t>24.84386971286458</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="119" t="n">
-        <v>1.09502053520887</v>
+      <c r="A6" s="119" t="inlineStr">
+        <is>
+          <t>26.927367909035432</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="119" t="n">
-        <v>0.929288610388349</v>
+      <c r="A7" s="119" t="inlineStr">
+        <is>
+          <t>32.916877493406496</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="119" t="n">
-        <v>0.774257937348464</v>
+      <c r="A8" s="119" t="inlineStr">
+        <is>
+          <t>37.240478504597654</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="119" t="n">
-        <v>0.80388599060528</v>
+      <c r="A9" s="119" t="inlineStr">
+        <is>
+          <t>38.418842379628565</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="119" t="n">
-        <v>1.34835875900739</v>
+      <c r="A10" s="119" t="inlineStr">
+        <is>
+          <t>25.361363608231365</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="119" t="n">
-        <v>1.37741050129851</v>
+      <c r="A11" s="119" t="inlineStr">
+        <is>
+          <t>25.099766185470124</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="119" t="n">
-        <v>1.30796450673355</v>
+      <c r="A12" s="119" t="inlineStr">
+        <is>
+          <t>24.899878610859567</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="119" t="n">
-        <v>1.05956042491856</v>
+      <c r="A13" s="119" t="inlineStr">
+        <is>
+          <t>24.017091476427574</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="119" t="n">
-        <v>1.11375540839544</v>
+      <c r="A14" s="119" t="inlineStr">
+        <is>
+          <t>26.400118115677266</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="119" t="n">
-        <v>1.40398584816264</v>
+      <c r="A15" s="119" t="inlineStr">
+        <is>
+          <t>25.802832218692565</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="119" t="n">
-        <v>1.0141772998663</v>
+      <c r="A16" s="119" t="inlineStr">
+        <is>
+          <t>27.53908567825716</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="119" t="n">
-        <v>1.1399460331867</v>
+      <c r="A17" s="119" t="inlineStr">
+        <is>
+          <t>26.942441534182528</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="119" t="n">
-        <v>1.04358516642551</v>
+      <c r="A18" s="119" t="inlineStr">
+        <is>
+          <t>27.578085275711665</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="119" t="n">
-        <v>1.37605854953575</v>
+      <c r="A19" s="119" t="inlineStr">
+        <is>
+          <t>27.031575212465548</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="119" t="n">
-        <v>1.20334293764759</v>
+      <c r="A20" s="119" t="inlineStr">
+        <is>
+          <t>19.108262284654735</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="119" t="n">
-        <v>1.26631682128493</v>
+      <c r="A21" s="119" t="inlineStr">
+        <is>
+          <t>19.41848028949483</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="119" t="n">
-        <v>0.949596654148143</v>
+      <c r="A22" s="119" t="inlineStr">
+        <is>
+          <t>33.351713720707956</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="119" t="n">
-        <v>1.3243894527107</v>
+      <c r="A23" s="119" t="inlineStr">
+        <is>
+          <t>26.60018863197319</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="119" t="n">
-        <v>1.30287624338513</v>
+      <c r="A24" s="119" t="inlineStr">
+        <is>
+          <t>27.515306821880436</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="119" t="n">
-        <v>1.30301604439634</v>
+      <c r="A25" s="119" t="inlineStr">
+        <is>
+          <t>27.54085353530882</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="119" t="n">
-        <v>0.760309263262328</v>
+      <c r="A26" s="119" t="inlineStr">
+        <is>
+          <t>42.5164625754931</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="119" t="n">
-        <v>0.79721049196431</v>
+      <c r="A27" s="119" t="inlineStr">
+        <is>
+          <t>34.47071911552354</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="119" t="n">
-        <v>1.30544040534504</v>
+      <c r="A28" s="119" t="inlineStr">
+        <is>
+          <t>28.702131115707424</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="119" t="n">
-        <v>1.41423425838579</v>
+      <c r="A29" s="119" t="inlineStr">
+        <is>
+          <t>25.100056494654915</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="119" t="n">
-        <v>1.40208719928548</v>
+      <c r="A30" s="119" t="inlineStr">
+        <is>
+          <t>25.883675035031267</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="119" t="n">
-        <v>1.37672811712362</v>
+      <c r="A31" s="119" t="inlineStr">
+        <is>
+          <t>27.29044282410195</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="119" t="n">
-        <v>1.34602610268297</v>
+      <c r="A32" s="119" t="inlineStr">
+        <is>
+          <t>28.812412453148845</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="119" t="n">
-        <v>1.32346641340994</v>
+      <c r="A33" s="119" t="inlineStr">
+        <is>
+          <t>30.169477458702694</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="119" t="n">
-        <v>0.985692449123629</v>
+      <c r="A34" s="119" t="inlineStr">
+        <is>
+          <t>26.632371128057294</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="119" t="n">
-        <v>1.05192690261783</v>
+      <c r="A35" s="119" t="inlineStr">
+        <is>
+          <t>24.57310967120997</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="119" t="n">
-        <v>1.00372237218504</v>
+      <c r="A36" s="119" t="inlineStr">
+        <is>
+          <t>25.72917323431492</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="119" t="n">
-        <v>0.997702871676599</v>
+      <c r="A37" s="119" t="inlineStr">
+        <is>
+          <t>26.017828287280672</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="119" t="n">
-        <v>1.01111849775166</v>
+      <c r="A38" s="119" t="inlineStr">
+        <is>
+          <t>25.596992138801205</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="119" t="n">
-        <v>0.994863407340825</v>
+      <c r="A39" s="119" t="inlineStr">
+        <is>
+          <t>26.7139297100532</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="119" t="n">
-        <v>1.0238230335255</v>
+      <c r="A40" s="119" t="inlineStr">
+        <is>
+          <t>25.705150816150528</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="119" t="n">
-        <v>1.03211015096155</v>
+      <c r="A41" s="119" t="inlineStr">
+        <is>
+          <t>24.900382224204442</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="119" t="n">
-        <v>1.26218218813078</v>
+      <c r="A42" s="119" t="inlineStr">
+        <is>
+          <t>26.419745909007666</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="119" t="n">
-        <v>1.26441583385666</v>
+      <c r="A43" s="119" t="inlineStr">
+        <is>
+          <t>25.099646374473345</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="119" t="n">
-        <v>1.33024107307371</v>
+      <c r="A44" s="119" t="inlineStr">
+        <is>
+          <t>19.65597562006638</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="119" t="n">
-        <v>1.28204609823739</v>
+      <c r="A45" s="119" t="inlineStr">
+        <is>
+          <t>21.394461868106056</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="119" t="n">
-        <v>1.41319006718762</v>
+      <c r="A46" s="119" t="inlineStr">
+        <is>
+          <t>25.696638632923786</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="119" t="n">
-        <v>1.46158314687027</v>
+      <c r="A47" s="119" t="inlineStr">
+        <is>
+          <t>23.183861406528315</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="119" t="n">
-        <v>1.47498892306797</v>
+      <c r="A48" s="119" t="inlineStr">
+        <is>
+          <t>23.409770788571315</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="119" t="n">
-        <v>1.47448271253804</v>
+      <c r="A49" s="119" t="inlineStr">
+        <is>
+          <t>24.271599951218427</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="119" t="n">
-        <v>1.49344360015947</v>
+      <c r="A50" s="119" t="inlineStr">
+        <is>
+          <t>24.369569193911282</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="119" t="n">
-        <v>1.4865408849519</v>
+      <c r="A51" s="119" t="inlineStr">
+        <is>
+          <t>24.832945984957227</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="119" t="n">
-        <v>0.735237629888551</v>
+      <c r="A52" s="119" t="inlineStr">
+        <is>
+          <t>40.72825286403725</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="119" t="n">
-        <v>1.11067899031296</v>
+      <c r="A53" s="119" t="inlineStr">
+        <is>
+          <t>26.752453033576835</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="119" t="n">
-        <v>0.934834653302408</v>
+      <c r="A54" s="119" t="inlineStr">
+        <is>
+          <t>32.85755378965343</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="119" t="n">
-        <v>0.904803639113282</v>
+      <c r="A55" s="119" t="inlineStr">
+        <is>
+          <t>33.93754651322269</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="119" t="n">
-        <v>1.30783630348871</v>
+      <c r="A56" s="119" t="inlineStr">
+        <is>
+          <t>25.411533251519536</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="119" t="n">
-        <v>1.24521358510795</v>
+      <c r="A57" s="119" t="inlineStr">
+        <is>
+          <t>20.655836051931082</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="119" t="n">
-        <v>1.03864904563403</v>
+      <c r="A58" s="119" t="inlineStr">
+        <is>
+          <t>27.38769163861938</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="119" t="n">
-        <v>0.765826731739338</v>
+      <c r="A59" s="119" t="inlineStr">
+        <is>
+          <t>42.366503415408765</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="119" t="n">
-        <v>0.767066766864372</v>
+      <c r="A60" s="119" t="inlineStr">
+        <is>
+          <t>42.28182334958864</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="119" t="n">
-        <v>0.770472392737821</v>
+      <c r="A61" s="119" t="inlineStr">
+        <is>
+          <t>42.162077331156006</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="119" t="n">
-        <v>0.828552128574594</v>
+      <c r="A62" s="119" t="inlineStr">
+        <is>
+          <t>39.570474096436364</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="119" t="n">
-        <v>1.01411024123975</v>
+      <c r="A63" s="119" t="inlineStr">
+        <is>
+          <t>26.899059943988142</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="119" t="n">
-        <v>1.01136102053088</v>
+      <c r="A64" s="119" t="inlineStr">
+        <is>
+          <t>26.17266564474364</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="119" t="n">
-        <v>1.02616162632641</v>
+      <c r="A65" s="119" t="inlineStr">
+        <is>
+          <t>28.133649608349252</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="119" t="n">
-        <v>0.992435956955355</v>
+      <c r="A66" s="119" t="inlineStr">
+        <is>
+          <t>30.264279974864145</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="119" t="n">
-        <v>0.967683192362969</v>
+      <c r="A67" s="119" t="inlineStr">
+        <is>
+          <t>31.91744843745105</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="119" t="n">
-        <v>0.944534289805765</v>
+      <c r="A68" s="119" t="inlineStr">
+        <is>
+          <t>33.27055598390279</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="119" t="n">
-        <v>1.16495169454256</v>
+      <c r="A69" s="119" t="inlineStr">
+        <is>
+          <t>26.676886562551154</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="119" t="n">
-        <v>1.37479182301313</v>
+      <c r="A70" s="119" t="inlineStr">
+        <is>
+          <t>25.10039022021696</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="119" t="n">
-        <v>1.21454518427962</v>
+      <c r="A71" s="119" t="inlineStr">
+        <is>
+          <t>31.519713678708804</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="119" t="n">
-        <v>0.944596671129097</v>
+      <c r="A72" s="119" t="inlineStr">
+        <is>
+          <t>36.36292362266098</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="119" t="n">
-        <v>1.10217764522129</v>
+      <c r="A73" s="119" t="inlineStr">
+        <is>
+          <t>26.522509603702595</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="119" t="n">
-        <v>0.803202101827709</v>
+      <c r="A74" s="119" t="inlineStr">
+        <is>
+          <t>41.469870934955175</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="119" t="n">
-        <v>0.815846563399015</v>
+      <c r="A75" s="119" t="inlineStr">
+        <is>
+          <t>40.64884815917514</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="119" t="n">
-        <v>0.987641475863302</v>
+      <c r="A76" s="119" t="inlineStr">
+        <is>
+          <t>28.748898691585488</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="119" t="n">
-        <v>0.942559684626351</v>
+      <c r="A77" s="119" t="inlineStr">
+        <is>
+          <t>30.46246523894218</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="119" t="n">
-        <v>1.29125980825322</v>
+      <c r="A78" s="119" t="inlineStr">
+        <is>
+          <t>28.480210374683757</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="119" t="n">
-        <v>1.42791376490241</v>
+      <c r="A79" s="119" t="inlineStr">
+        <is>
+          <t>25.09941816257065</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="119" t="n">
-        <v>1.06138817876861</v>
+      <c r="A80" s="119" t="inlineStr">
+        <is>
+          <t>26.338536536417188</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="119" t="n">
-        <v>0.994142000028214</v>
+      <c r="A81" s="119" t="inlineStr">
+        <is>
+          <t>25.099786793914866</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="119" t="n">
-        <v>1.39398326745447</v>
+      <c r="A82" s="119" t="inlineStr">
+        <is>
+          <t>26.640822204188176</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="119" t="n">
-        <v>1.39760824078418</v>
+      <c r="A83" s="119" t="inlineStr">
+        <is>
+          <t>26.98433246868253</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="119" t="n">
-        <v>1.04133843133299</v>
+      <c r="A84" s="119" t="inlineStr">
+        <is>
+          <t>25.09993284936592</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="119" t="n">
-        <v>1.30416615977899</v>
+      <c r="A85" s="119" t="inlineStr">
+        <is>
+          <t>22.50416929703767</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="119" t="n">
-        <v>0.913667918188107</v>
+      <c r="A86" s="119" t="inlineStr">
+        <is>
+          <t>26.010217381559904</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16896" windowWidth="30936" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="suport_vector" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="class" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data-similar" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="knowledge-similar" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="prediction" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="label" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="org_label" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="suport_vector" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="class" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data-similar" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knowledge-similar" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prediction" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="label" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="org_label" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'suport_vector'!$C$1:$C$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'suport_vector'!$C$1:$C$89</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -25,9 +25,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="0.000_ " numFmtId="164"/>
-    <numFmt formatCode="0.00_ " numFmtId="165"/>
-    <numFmt formatCode="0.0000_ " numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="0.000_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -252,369 +252,369 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="121">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="8" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -956,27 +956,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="5.6640625"/>
-    <col customWidth="1" max="2" min="2" style="16" width="10"/>
-    <col customWidth="1" max="3" min="3" style="16" width="39.44140625"/>
-    <col customWidth="1" max="4" min="4" style="16" width="9.109375"/>
-    <col customWidth="1" max="5" min="5" style="16" width="7.77734375"/>
-    <col customWidth="1" max="6" min="6" style="16" width="15"/>
-    <col customWidth="1" max="7" min="7" style="16" width="12.6640625"/>
-    <col customWidth="1" max="8" min="8" style="16" width="10.44140625"/>
-    <col customWidth="1" max="9" min="9" style="16" width="14.44140625"/>
-    <col customWidth="1" max="10" min="10" style="16" width="15.6640625"/>
-    <col customWidth="1" max="11" min="11" style="16" width="7.21875"/>
-    <col customWidth="1" max="12" min="12" style="16" width="10.44140625"/>
-    <col customWidth="1" max="13" min="13" style="16" width="7.21875"/>
-    <col customWidth="1" max="14" min="14" style="16" width="9.88671875"/>
-    <col customWidth="1" max="17" min="15" style="16" width="8.109375"/>
-    <col customWidth="1" max="18" min="18" style="16" width="12.88671875"/>
-    <col customWidth="1" max="19" min="19" style="16" width="7.21875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="16" width="7.6640625"/>
+    <col width="5.6640625" customWidth="1" style="16" min="1" max="1"/>
+    <col width="10" customWidth="1" style="16" min="2" max="2"/>
+    <col width="39.44140625" customWidth="1" style="16" min="3" max="3"/>
+    <col width="9.109375" customWidth="1" style="16" min="4" max="4"/>
+    <col width="7.77734375" customWidth="1" style="16" min="5" max="5"/>
+    <col width="15" customWidth="1" style="16" min="6" max="6"/>
+    <col width="12.6640625" customWidth="1" style="16" min="7" max="7"/>
+    <col width="10.44140625" customWidth="1" style="16" min="8" max="8"/>
+    <col width="14.44140625" customWidth="1" style="16" min="9" max="9"/>
+    <col width="15.6640625" customWidth="1" style="16" min="10" max="10"/>
+    <col width="7.21875" customWidth="1" style="16" min="11" max="11"/>
+    <col width="10.44140625" customWidth="1" style="16" min="12" max="12"/>
+    <col width="7.21875" customWidth="1" style="16" min="13" max="13"/>
+    <col width="9.88671875" customWidth="1" style="16" min="14" max="14"/>
+    <col width="8.109375" customWidth="1" style="16" min="15" max="17"/>
+    <col width="12.88671875" customWidth="1" style="16" min="18" max="18"/>
+    <col width="7.21875" customWidth="1" style="16" min="19" max="19"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="68" t="inlineStr">
         <is>
           <t>序号</t>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.2" r="2" s="16">
+    <row r="2" ht="16.2" customHeight="1" s="16">
       <c r="A2" s="69" t="n"/>
       <c r="B2" s="69" t="n"/>
       <c r="C2" s="69" t="n"/>
@@ -1516,7 +1516,7 @@
         <v>0.91796875</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="17">
+    <row r="9" customFormat="1" s="17">
       <c r="A9" s="2" t="n">
         <v>6</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0.849609375</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="17">
+    <row r="24" customFormat="1" s="17">
       <c r="A24" s="2" t="n">
         <v>25</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1.484375</v>
       </c>
     </row>
-    <row customFormat="1" r="49" s="17">
+    <row r="49" customFormat="1" s="17">
       <c r="A49" s="2" t="n">
         <v>51</v>
       </c>
@@ -6579,7 +6579,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="T1:T2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -6598,29 +6598,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="10.109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="16" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="8.77734375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="8"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="13.88671875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="16" width="11.77734375"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="16" width="10.44140625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="13.5546875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="16" width="14.44140625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="16" width="9.5546875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="16" width="7.44140625"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="16" width="10.6640625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="16" width="8.44140625"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="16" width="12.109375"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="21" min="21" style="16" width="13.88671875"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.44140625" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="8.77734375" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="8" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
+    <col width="14.44140625" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="11" max="11"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
+    <col width="7.44140625" bestFit="1" customWidth="1" style="16" min="13" max="13"/>
+    <col width="10.6640625" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="15" max="15"/>
+    <col width="8.44140625" bestFit="1" customWidth="1" style="16" min="16" max="16"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="17" max="17"/>
+    <col width="12.109375" bestFit="1" customWidth="1" style="16" min="18" max="18"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="19" max="19"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="16" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="13">
+    <row r="1" customFormat="1" s="13">
       <c r="A1" s="74" t="inlineStr">
         <is>
           <t>序号</t>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.2" r="2" s="13">
+    <row r="2" ht="16.2" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="69" t="n"/>
       <c r="B2" s="69" t="n"/>
       <c r="C2" s="69" t="n"/>
@@ -11119,7 +11119,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="64" s="16">
+    <row r="64" ht="14.4" customHeight="1" s="16">
       <c r="A64" s="4" t="n">
         <v>61</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="65" s="16">
+    <row r="65" ht="14.4" customHeight="1" s="16">
       <c r="A65" s="4" t="n">
         <v>62</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="16">
+    <row r="66" ht="13.8" customHeight="1" s="16">
       <c r="A66" s="4" t="n">
         <v>63</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="16">
+    <row r="67" ht="13.8" customHeight="1" s="16">
       <c r="A67" s="4" t="n">
         <v>64</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="16">
+    <row r="68" ht="13.8" customHeight="1" s="16">
       <c r="A68" s="4" t="n">
         <v>65</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="16">
+    <row r="69" ht="13.8" customHeight="1" s="16">
       <c r="A69" s="4" t="n">
         <v>66</v>
       </c>
@@ -12833,7 +12833,7 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -12852,29 +12852,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="5.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="10.5546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="16" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="9.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="8.109375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="14.88671875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="16" width="12.44140625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="16" width="10.5546875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="14.21875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="16" width="15.109375"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="16" width="9.5546875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="16" width="7.88671875"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="16" width="11.44140625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="16" width="8.6640625"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="16" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="21" min="21" style="16" width="10.44140625"/>
-    <col bestFit="1" customWidth="1" max="22" min="22" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="23" min="23" style="16" width="6.109375"/>
+    <col width="5.77734375" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.44140625" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="9.109375" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="8.109375" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="14.88671875" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
+    <col width="12.44140625" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
+    <col width="14.21875" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
+    <col width="15.109375" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="11" max="11"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
+    <col width="7.88671875" bestFit="1" customWidth="1" style="16" min="13" max="13"/>
+    <col width="11.44140625" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="15" max="15"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="16" min="16" max="16"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="17" max="17"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="16" min="18" max="18"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="19" max="19"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" style="16" min="21" max="21"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="22" max="22"/>
+    <col width="6.109375" bestFit="1" customWidth="1" style="16" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13969,7 +13969,7 @@
       <c r="X14" s="108" t="n"/>
       <c r="Y14" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="15" s="17">
+    <row r="15" customFormat="1" s="17">
       <c r="A15" s="22" t="n">
         <v>46</v>
       </c>
@@ -14273,7 +14273,7 @@
       <c r="X18" s="108" t="n"/>
       <c r="Y18" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="19" s="17">
+    <row r="19" customFormat="1" s="17">
       <c r="A19" s="22" t="n">
         <v>55</v>
       </c>
@@ -14349,7 +14349,7 @@
       <c r="X19" s="108" t="n"/>
       <c r="Y19" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="20" s="64">
+    <row r="20" customFormat="1" s="64">
       <c r="A20" s="61" t="n">
         <v>68</v>
       </c>
@@ -15875,7 +15875,7 @@
       <c r="X39" s="108" t="n"/>
       <c r="Y39" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="40" s="17">
+    <row r="40" customFormat="1" s="17">
       <c r="A40" s="22" t="n">
         <v>63</v>
       </c>
@@ -17477,7 +17477,7 @@
       <c r="X60" s="108" t="n"/>
       <c r="Y60" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="17">
+    <row r="61" customFormat="1" s="17">
       <c r="A61" s="22" t="n">
         <v>42</v>
       </c>
@@ -19231,7 +19231,7 @@
       <c r="X83" s="108" t="n"/>
       <c r="Y83" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="84" s="64">
+    <row r="84" customFormat="1" s="64">
       <c r="A84" s="61" t="n">
         <v>72</v>
       </c>
@@ -19383,7 +19383,7 @@
       <c r="X85" s="108" t="n"/>
       <c r="Y85" s="108" t="n"/>
     </row>
-    <row customFormat="1" r="86" s="64">
+    <row r="86" customFormat="1" s="64">
       <c r="A86" s="61" t="n">
         <v>79</v>
       </c>
@@ -19553,7 +19553,7 @@
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="Y24:Y48"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -19572,30 +19572,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="5.77734375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="10.5546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="16" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="9.109375"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="8.109375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="14.88671875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="16" width="12.44140625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="16" width="10.5546875"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="14.21875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="16" width="15.109375"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="16" width="9.5546875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="16" width="7.5546875"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="16" width="11.109375"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="16" min="16" style="16" width="8.6640625"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="16" width="12.6640625"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="21" min="21" style="16" width="10.44140625"/>
+    <col width="5.77734375" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.44140625" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="9.109375" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="8.109375" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="14.88671875" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
+    <col width="12.44140625" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" style="16" min="8" max="8"/>
+    <col width="14.21875" bestFit="1" customWidth="1" style="16" min="9" max="9"/>
+    <col width="15.109375" bestFit="1" customWidth="1" style="16" min="10" max="10"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="11" max="11"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
+    <col width="7.5546875" bestFit="1" customWidth="1" style="16" min="13" max="13"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="15" max="15"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="16" min="16" max="16"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="17" max="17"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="16" min="18" max="18"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="19" max="19"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" style="16" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="13">
+    <row r="1" customFormat="1" s="13">
       <c r="A1" s="74" t="inlineStr">
         <is>
           <t>序号</t>
@@ -19670,7 +19670,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.2" r="2" s="13">
+    <row r="2" ht="16.2" customFormat="1" customHeight="1" s="13">
       <c r="A2" s="69" t="n"/>
       <c r="B2" s="69" t="n"/>
       <c r="C2" s="69" t="n"/>
@@ -21030,7 +21030,7 @@
         <v>0.949596654148143</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="16">
+    <row r="22" ht="13.8" customHeight="1" s="16">
       <c r="A22" s="4" t="n">
         <v>66</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>0.944534289805765</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="16">
+    <row r="23" ht="13.8" customHeight="1" s="16">
       <c r="A23" s="4" t="n">
         <v>65</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>0.967683192362969</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="16">
+    <row r="24" ht="13.8" customHeight="1" s="16">
       <c r="A24" s="4" t="n">
         <v>64</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>0.944596671129097</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="64">
+    <row r="33" customFormat="1" s="64">
       <c r="A33" s="65" t="n">
         <v>68</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>1.47498892306797</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="64">
+    <row r="39" customFormat="1" s="64">
       <c r="A39" s="65" t="n">
         <v>72</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>0.760309263262328</v>
       </c>
     </row>
-    <row customFormat="1" r="45" s="64">
+    <row r="45" customFormat="1" s="64">
       <c r="A45" s="65" t="n">
         <v>79</v>
       </c>
@@ -22981,7 +22981,7 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -22999,26 +22999,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="5.5546875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="10.109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="16" width="38.44140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="6.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="5.6640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="6.6640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="16" width="3.5546875"/>
-    <col bestFit="1" customWidth="1" max="10" min="8" style="16" width="6.6640625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="16" width="9.5546875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="16" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="16" width="7.5546875"/>
-    <col bestFit="1" customWidth="1" max="17" min="15" style="16" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="16" width="8.6640625"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="16" width="5.5546875"/>
-    <col bestFit="1" customWidth="1" max="20" min="20" style="16" width="7.6640625"/>
-    <col customWidth="1" max="21" min="21" style="17" width="8.88671875"/>
+    <col width="5.5546875" bestFit="1" customWidth="1" style="16" min="1" max="1"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.44140625" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="6.6640625" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="5.6640625" bestFit="1" customWidth="1" style="16" min="5" max="5"/>
+    <col width="6.6640625" bestFit="1" customWidth="1" style="16" min="6" max="6"/>
+    <col width="3.5546875" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="6.6640625" bestFit="1" customWidth="1" style="16" min="8" max="10"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="11" max="11"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="16" min="12" max="12"/>
+    <col width="6.5546875" bestFit="1" customWidth="1" style="16" min="13" max="13"/>
+    <col width="7.5546875" bestFit="1" customWidth="1" style="16" min="14" max="14"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="15" max="17"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="16" min="18" max="18"/>
+    <col width="5.5546875" bestFit="1" customWidth="1" style="16" min="19" max="19"/>
+    <col width="7.6640625" bestFit="1" customWidth="1" style="16" min="20" max="20"/>
+    <col width="8.88671875" customWidth="1" style="17" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="7">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="7">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>序号</t>
@@ -23350,7 +23350,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -23369,7 +23369,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="119" width="12.77734375"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="119" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23382,600 +23382,600 @@
     <row r="2">
       <c r="A2" s="119" t="inlineStr">
         <is>
-          <t>76.02150920061305</t>
+          <t>21.604320862723988</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="119" t="inlineStr">
         <is>
-          <t>75.36640335266392</t>
+          <t>25.100306520923446</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="119" t="inlineStr">
         <is>
-          <t>65.64082200047244</t>
+          <t>23.686451016109082</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="119" t="inlineStr">
         <is>
-          <t>44.12828892590482</t>
+          <t>24.843869712864468</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="119" t="inlineStr">
         <is>
-          <t>53.623042649253655</t>
+          <t>26.927367909035432</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="119" t="inlineStr">
         <is>
-          <t>77.36040141526973</t>
+          <t>32.916877493406496</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="119" t="inlineStr">
         <is>
-          <t>68.4718451967378</t>
+          <t>37.240478504597654</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="119" t="inlineStr">
         <is>
-          <t>80.78997239146116</t>
+          <t>38.418842379628565</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="119" t="inlineStr">
         <is>
-          <t>75.28957346711206</t>
+          <t>25.361363608231365</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="119" t="inlineStr">
         <is>
-          <t>59.596147916693404</t>
+          <t>25.099766185470124</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="119" t="inlineStr">
         <is>
-          <t>80.58857886546389</t>
+          <t>24.899878610859567</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="119" t="inlineStr">
         <is>
-          <t>85.3142617330488</t>
+          <t>24.017091476427687</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="119" t="inlineStr">
         <is>
-          <t>83.19409462480121</t>
+          <t>26.400118115677266</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="119" t="inlineStr">
         <is>
-          <t>68.6750231661843</t>
+          <t>25.802832218692565</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="119" t="inlineStr">
         <is>
-          <t>35.03264925726001</t>
+          <t>27.539085678257045</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="119" t="inlineStr">
         <is>
-          <t>43.6085077078363</t>
+          <t>26.942441534182414</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="119" t="inlineStr">
         <is>
-          <t>39.5400159425302</t>
+          <t>27.578085275711665</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="119" t="inlineStr">
         <is>
-          <t>30.32762041406476</t>
+          <t>27.031575212465548</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="119" t="inlineStr">
         <is>
-          <t>47.288878487121984</t>
+          <t>19.108262284654735</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="119" t="inlineStr">
         <is>
-          <t>44.58932983922069</t>
+          <t>19.41848028949483</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="119" t="inlineStr">
         <is>
-          <t>48.5487401634275</t>
+          <t>33.351713720707956</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="119" t="inlineStr">
         <is>
-          <t>68.31074024986086</t>
+          <t>26.600188631973303</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="119" t="inlineStr">
         <is>
-          <t>71.70630509150772</t>
+          <t>27.515306821880436</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="119" t="inlineStr">
         <is>
-          <t>71.64780619983142</t>
+          <t>27.54085353530882</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="119" t="inlineStr">
         <is>
-          <t>103.58179527885775</t>
+          <t>42.51646257549316</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="119" t="inlineStr">
         <is>
-          <t>103.41701392191624</t>
+          <t>34.47071911552354</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="119" t="inlineStr">
         <is>
-          <t>32.58173663816432</t>
+          <t>28.702131115707424</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="119" t="inlineStr">
         <is>
-          <t>31.989644880005308</t>
+          <t>25.10005649465503</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="119" t="inlineStr">
         <is>
-          <t>32.325021862707594</t>
+          <t>25.883675035031267</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="119" t="inlineStr">
         <is>
-          <t>32.95391022026717</t>
+          <t>27.290442824101966</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="119" t="inlineStr">
         <is>
-          <t>32.883790608597415</t>
+          <t>28.812412453148788</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="119" t="inlineStr">
         <is>
-          <t>33.56970604373233</t>
+          <t>30.169477458702694</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="119" t="inlineStr">
         <is>
-          <t>113.1372988735585</t>
+          <t>26.632371128057407</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="119" t="inlineStr">
         <is>
-          <t>99.69315563592593</t>
+          <t>24.573109671209856</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="119" t="inlineStr">
         <is>
-          <t>97.96078065660882</t>
+          <t>25.72917323431492</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="119" t="inlineStr">
         <is>
-          <t>96.25282617582963</t>
+          <t>26.017828287280558</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="119" t="inlineStr">
         <is>
-          <t>95.97900520486291</t>
+          <t>25.596992138801248</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="119" t="inlineStr">
         <is>
-          <t>92.64195532337041</t>
+          <t>26.7139297100532</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="119" t="inlineStr">
         <is>
-          <t>93.0847387422101</t>
+          <t>25.705150816150514</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="119" t="inlineStr">
         <is>
-          <t>89.83539108747061</t>
+          <t>24.900382224204442</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="119" t="inlineStr">
         <is>
-          <t>69.48422363781646</t>
+          <t>26.419745909007666</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="119" t="inlineStr">
         <is>
-          <t>79.75934811882686</t>
+          <t>25.09964637447323</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="119" t="inlineStr">
         <is>
-          <t>73.58426234233323</t>
+          <t>19.65597562006638</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="119" t="inlineStr">
         <is>
-          <t>83.63425206157913</t>
+          <t>21.394461868106056</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="119" t="inlineStr">
         <is>
-          <t>30.957567272103383</t>
+          <t>25.696638632923786</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="119" t="inlineStr">
         <is>
-          <t>42.91772136357482</t>
+          <t>23.183861406528315</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="119" t="inlineStr">
         <is>
-          <t>45.42199646247722</t>
+          <t>23.409770788571485</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="119" t="inlineStr">
         <is>
-          <t>47.15024586194951</t>
+          <t>24.271599951218427</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="119" t="inlineStr">
         <is>
-          <t>49.421086800818394</t>
+          <t>24.369569193911396</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="119" t="inlineStr">
         <is>
-          <t>50.325450100964396</t>
+          <t>24.832945984957227</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="119" t="inlineStr">
         <is>
-          <t>98.15641672063313</t>
+          <t>40.72825286403725</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="119" t="inlineStr">
         <is>
-          <t>31.850706098433953</t>
+          <t>26.752453033576835</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="119" t="inlineStr">
         <is>
-          <t>77.20921289074582</t>
+          <t>32.857553789653544</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="119" t="inlineStr">
         <is>
-          <t>77.95182548805582</t>
+          <t>33.93754651322269</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="119" t="inlineStr">
         <is>
-          <t>14.691438797753598</t>
+          <t>25.411533251519536</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="119" t="inlineStr">
         <is>
-          <t>79.63092906243966</t>
+          <t>20.655836051931082</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="119" t="inlineStr">
         <is>
-          <t>40.987652572846564</t>
+          <t>27.38769163861938</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="119" t="inlineStr">
         <is>
-          <t>102.05936499764618</t>
+          <t>42.366503415408765</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="119" t="inlineStr">
         <is>
-          <t>104.87505415865229</t>
+          <t>42.28182334958864</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="119" t="inlineStr">
         <is>
-          <t>103.92128130514698</t>
+          <t>42.16207733115589</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="119" t="inlineStr">
         <is>
-          <t>98.36217743287347</t>
+          <t>39.57047409643635</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="119" t="inlineStr">
         <is>
-          <t>73.2556065453588</t>
+          <t>26.899059943988142</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="119" t="inlineStr">
         <is>
-          <t>78.88420357046775</t>
+          <t>26.17266564474364</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="119" t="inlineStr">
         <is>
-          <t>53.81792275390672</t>
+          <t>28.133649608349252</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="119" t="inlineStr">
         <is>
-          <t>55.6102834296206</t>
+          <t>30.264279974864145</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="119" t="inlineStr">
         <is>
-          <t>56.75367654696107</t>
+          <t>31.91744843745105</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="119" t="inlineStr">
         <is>
-          <t>57.16965427497049</t>
+          <t>33.27055598390279</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="119" t="inlineStr">
         <is>
-          <t>51.44290292538995</t>
+          <t>26.676886562551154</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="119" t="inlineStr">
         <is>
-          <t>44.867329835267135</t>
+          <t>25.10039022021696</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="119" t="inlineStr">
         <is>
-          <t>37.1753924943257</t>
+          <t>31.519713678708804</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="119" t="inlineStr">
         <is>
-          <t>26.962834466441485</t>
+          <t>36.36292362266098</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="119" t="inlineStr">
         <is>
-          <t>50.3756939160346</t>
+          <t>26.522509603702595</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="119" t="inlineStr">
         <is>
-          <t>103.23156245778972</t>
+          <t>41.469870934955175</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="119" t="inlineStr">
         <is>
-          <t>104.91828361420221</t>
+          <t>40.64884815917517</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="119" t="inlineStr">
         <is>
-          <t>71.80545589266382</t>
+          <t>28.748898691585488</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="119" t="inlineStr">
         <is>
-          <t>82.15151779285256</t>
+          <t>30.46246523894218</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="119" t="inlineStr">
         <is>
-          <t>67.86103111175686</t>
+          <t>28.48021037468377</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="119" t="inlineStr">
         <is>
-          <t>34.68337353808793</t>
+          <t>25.099418162570664</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="119" t="inlineStr">
         <is>
-          <t>40.73924093249094</t>
+          <t>26.338536536417188</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="119" t="inlineStr">
         <is>
-          <t>27.256435780345065</t>
+          <t>25.099786793914866</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="119" t="inlineStr">
         <is>
-          <t>54.637157176286244</t>
+          <t>26.640822204188176</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="119" t="inlineStr">
         <is>
-          <t>54.65192591313866</t>
+          <t>26.98433246868253</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="119" t="inlineStr">
         <is>
-          <t>48.09165857089348</t>
+          <t>25.09993284936592</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="119" t="inlineStr">
         <is>
-          <t>71.60321717698676</t>
+          <t>22.504169297037784</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="119" t="inlineStr">
         <is>
-          <t>95.93663944900413</t>
+          <t>26.01021738155979</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -23994,8 +23994,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="60" width="6.44140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="60" width="10.33203125"/>
+    <col width="6.44140625" bestFit="1" customWidth="1" style="60" min="1" max="1"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" style="60" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24691,7 +24691,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -24720,599 +24720,599 @@
     <row r="2">
       <c r="B2" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
@@ -6574,10 +6574,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -12826,12 +12826,12 @@
   </sheetData>
   <autoFilter ref="C1:C89"/>
   <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -19538,20 +19538,20 @@
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="Y66:Y87"/>
     <mergeCell ref="X49:X65"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X24:X48"/>
+    <mergeCell ref="X66:X87"/>
+    <mergeCell ref="Y49:Y65"/>
     <mergeCell ref="X3:X23"/>
-    <mergeCell ref="X66:X87"/>
     <mergeCell ref="Y3:Y23"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="Y66:Y87"/>
-    <mergeCell ref="Y49:Y65"/>
+    <mergeCell ref="X24:X48"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="Y24:Y48"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -22975,11 +22975,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23382,595 +23382,595 @@
     <row r="2">
       <c r="A2" s="119" t="inlineStr">
         <is>
-          <t>21.604320862723988</t>
+          <t>22.586853664326306</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="119" t="inlineStr">
         <is>
-          <t>25.100306520923446</t>
+          <t>24.933274420824013</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="119" t="inlineStr">
         <is>
-          <t>23.686451016109082</t>
+          <t>24.385162322780822</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="119" t="inlineStr">
         <is>
-          <t>24.843869712864468</t>
+          <t>25.989982017714972</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="119" t="inlineStr">
         <is>
-          <t>26.927367909035432</t>
+          <t>27.923678297030698</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="119" t="inlineStr">
         <is>
-          <t>32.916877493406496</t>
+          <t>29.16706885058972</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="119" t="inlineStr">
         <is>
-          <t>37.240478504597654</t>
+          <t>38.13301320194356</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="119" t="inlineStr">
         <is>
-          <t>38.418842379628565</t>
+          <t>35.300082519940496</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="119" t="inlineStr">
         <is>
-          <t>25.361363608231365</t>
+          <t>25.099161480199932</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="119" t="inlineStr">
         <is>
-          <t>25.099766185470124</t>
+          <t>25.286069183263585</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="119" t="inlineStr">
         <is>
-          <t>24.899878610859567</t>
+          <t>24.43288887080056</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="119" t="inlineStr">
         <is>
-          <t>24.017091476427687</t>
+          <t>25.326504171543625</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="119" t="inlineStr">
         <is>
-          <t>26.400118115677266</t>
+          <t>26.599679605553696</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="119" t="inlineStr">
         <is>
-          <t>25.802832218692565</t>
+          <t>24.89989651507249</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="119" t="inlineStr">
         <is>
-          <t>27.539085678257045</t>
+          <t>30.967049156329388</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="119" t="inlineStr">
         <is>
-          <t>26.942441534182414</t>
+          <t>24.899893616206278</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="119" t="inlineStr">
         <is>
-          <t>27.578085275711665</t>
+          <t>30.23646950093255</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="119" t="inlineStr">
         <is>
-          <t>27.031575212465548</t>
+          <t>29.093965250650463</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="119" t="inlineStr">
         <is>
-          <t>19.108262284654735</t>
+          <t>21.582532841804287</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="119" t="inlineStr">
         <is>
-          <t>19.41848028949483</t>
+          <t>22.615187559731176</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="119" t="inlineStr">
         <is>
-          <t>33.351713720707956</t>
+          <t>36.30086530886208</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="119" t="inlineStr">
         <is>
-          <t>26.600188631973303</t>
+          <t>26.599674442749908</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="119" t="inlineStr">
         <is>
-          <t>27.515306821880436</t>
+          <t>27.357972315759604</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="119" t="inlineStr">
         <is>
-          <t>27.54085353530882</t>
+          <t>27.36762239749155</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="119" t="inlineStr">
         <is>
-          <t>42.51646257549316</t>
+          <t>42.9838970935103</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="119" t="inlineStr">
         <is>
-          <t>34.47071911552354</t>
+          <t>34.97268248933242</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="119" t="inlineStr">
         <is>
-          <t>28.702131115707424</t>
+          <t>30.843183549831274</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="119" t="inlineStr">
         <is>
-          <t>25.10005649465503</t>
+          <t>26.813488755389592</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="119" t="inlineStr">
         <is>
-          <t>25.883675035031267</t>
+          <t>27.57291085424732</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="119" t="inlineStr">
         <is>
-          <t>27.290442824101966</t>
+          <t>29.102745484291297</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="119" t="inlineStr">
         <is>
-          <t>28.812412453148788</t>
+          <t>30.842076510407047</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="119" t="inlineStr">
         <is>
-          <t>30.169477458702694</t>
+          <t>32.30075807598546</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="119" t="inlineStr">
         <is>
-          <t>26.632371128057407</t>
+          <t>32.779212392857424</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="119" t="inlineStr">
         <is>
-          <t>24.573109671209856</t>
+          <t>25.812293039432497</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="119" t="inlineStr">
         <is>
-          <t>25.72917323431492</t>
+          <t>27.253342729254975</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="119" t="inlineStr">
         <is>
-          <t>26.017828287280558</t>
+          <t>27.450588212356827</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="119" t="inlineStr">
         <is>
-          <t>25.596992138801248</t>
+          <t>26.499724278680226</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="119" t="inlineStr">
         <is>
-          <t>26.7139297100532</t>
+          <t>27.802653429130793</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="119" t="inlineStr">
         <is>
-          <t>25.705150816150514</t>
+          <t>26.08801284698793</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="119" t="inlineStr">
         <is>
-          <t>24.900382224204442</t>
+          <t>24.900400099183408</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="119" t="inlineStr">
         <is>
-          <t>26.419745909007666</t>
+          <t>26.238448729549795</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="119" t="inlineStr">
         <is>
-          <t>25.09964637447323</t>
+          <t>20.684889908289044</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="119" t="inlineStr">
         <is>
-          <t>19.65597562006638</t>
+          <t>20.412411322600427</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="119" t="inlineStr">
         <is>
-          <t>21.394461868106056</t>
+          <t>21.122215210996025</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="119" t="inlineStr">
         <is>
-          <t>25.696638632923786</t>
+          <t>27.334626235646674</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="119" t="inlineStr">
         <is>
-          <t>23.183861406528315</t>
+          <t>24.258616747774333</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="119" t="inlineStr">
         <is>
-          <t>23.409770788571485</t>
+          <t>24.106235334373217</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="119" t="inlineStr">
         <is>
-          <t>24.271599951218427</t>
+          <t>24.841658154089465</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="119" t="inlineStr">
         <is>
-          <t>24.369569193911396</t>
+          <t>24.707725825651984</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="119" t="inlineStr">
         <is>
-          <t>24.832945984957227</t>
+          <t>25.100186368063042</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="119" t="inlineStr">
         <is>
-          <t>40.72825286403725</t>
+          <t>43.437220592163506</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="119" t="inlineStr">
         <is>
-          <t>26.752453033576835</t>
+          <t>32.079005650072936</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="119" t="inlineStr">
         <is>
-          <t>32.857553789653544</t>
+          <t>29.14038959962472</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="119" t="inlineStr">
         <is>
-          <t>33.93754651322269</t>
+          <t>30.24409109323816</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="119" t="inlineStr">
         <is>
-          <t>25.411533251519536</t>
+          <t>24.618787893760917</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="119" t="inlineStr">
         <is>
-          <t>20.655836051931082</t>
+          <t>23.431533265497656</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="119" t="inlineStr">
         <is>
-          <t>27.38769163861938</t>
+          <t>29.83116698608253</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="119" t="inlineStr">
         <is>
-          <t>42.366503415408765</t>
+          <t>43.626416471150215</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="119" t="inlineStr">
         <is>
-          <t>42.28182334958864</t>
+          <t>43.37821475892833</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="119" t="inlineStr">
         <is>
-          <t>42.16207733115589</t>
+          <t>42.65155004164904</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="119" t="inlineStr">
         <is>
-          <t>39.57047409643635</t>
+          <t>38.42450231535444</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="119" t="inlineStr">
         <is>
-          <t>26.899059943988142</t>
+          <t>27.234890682221398</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="119" t="inlineStr">
         <is>
-          <t>26.17266564474364</t>
+          <t>26.79161323899867</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="119" t="inlineStr">
         <is>
-          <t>28.133649608349252</t>
+          <t>30.252841448219748</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="119" t="inlineStr">
         <is>
-          <t>30.264279974864145</t>
+          <t>32.68006264139469</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="119" t="inlineStr">
         <is>
-          <t>31.91744843745105</t>
+          <t>34.631901573073016</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="119" t="inlineStr">
         <is>
-          <t>33.27055598390279</t>
+          <t>36.22488105500042</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="119" t="inlineStr">
         <is>
-          <t>26.676886562551154</t>
+          <t>30.91413295600271</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="119" t="inlineStr">
         <is>
-          <t>25.10039022021696</t>
+          <t>26.927446201380953</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="119" t="inlineStr">
         <is>
-          <t>31.519713678708804</t>
+          <t>33.848343554756134</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="119" t="inlineStr">
         <is>
-          <t>36.36292362266098</t>
+          <t>43.93278301684082</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="119" t="inlineStr">
         <is>
-          <t>26.522509603702595</t>
+          <t>29.007247189204556</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="119" t="inlineStr">
         <is>
-          <t>41.469870934955175</t>
+          <t>42.33514629372143</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="119" t="inlineStr">
         <is>
-          <t>40.64884815917517</t>
+          <t>40.62647207559751</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="119" t="inlineStr">
         <is>
-          <t>28.748898691585488</t>
+          <t>29.185667632090876</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="119" t="inlineStr">
         <is>
-          <t>30.46246523894218</t>
+          <t>31.635481839718516</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="119" t="inlineStr">
         <is>
-          <t>28.48021037468377</t>
+          <t>27.625015462329394</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="119" t="inlineStr">
         <is>
-          <t>25.099418162570664</t>
+          <t>25.459385569904263</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="119" t="inlineStr">
         <is>
-          <t>26.338536536417188</t>
+          <t>28.603146125401487</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="119" t="inlineStr">
         <is>
-          <t>25.099786793914866</t>
+          <t>25.100154260029363</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="119" t="inlineStr">
         <is>
-          <t>26.640822204188176</t>
+          <t>24.89233846320233</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="119" t="inlineStr">
         <is>
-          <t>26.98433246868253</t>
+          <t>25.39082876642727</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="119" t="inlineStr">
         <is>
-          <t>25.09993284936592</t>
+          <t>25.100208742600962</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="119" t="inlineStr">
         <is>
-          <t>22.504169297037784</t>
+          <t>22.62148565856277</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="119" t="inlineStr">
         <is>
-          <t>26.01021738155979</t>
+          <t>28.656345865946285</t>
         </is>
       </c>
     </row>
@@ -24720,35 +24720,35 @@
     <row r="2">
       <c r="B2" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24776,35 +24776,35 @@
     <row r="10">
       <c r="B10" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24818,21 +24818,21 @@
     <row r="16">
       <c r="B16" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24846,21 +24846,21 @@
     <row r="20">
       <c r="B20" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24951,49 +24951,49 @@
     <row r="35">
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25007,7 +25007,7 @@
     <row r="43">
       <c r="B43" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25021,7 +25021,7 @@
     <row r="45">
       <c r="B45" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25035,35 +25035,35 @@
     <row r="47">
       <c r="B47" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25105,14 +25105,14 @@
     <row r="57">
       <c r="B57" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25147,56 +25147,56 @@
     <row r="63">
       <c r="B63" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25217,7 +25217,7 @@
     <row r="73">
       <c r="B73" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25238,14 +25238,14 @@
     <row r="76">
       <c r="B76" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25266,7 +25266,7 @@
     <row r="80">
       <c r="B80" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -25280,35 +25280,35 @@
     <row r="82">
       <c r="B82" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/SVR/data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="suport_vector" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="class" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data-similar" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knowledge-similar" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prediction" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="label" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="org_label" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="suport_vector" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="class" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data-similar" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="knowledge-similar" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="prediction" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="label" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="org_label" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'suport_vector'!$C$1:$C$89</definedName>
@@ -6574,10 +6574,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -12826,12 +12826,12 @@
   </sheetData>
   <autoFilter ref="C1:C89"/>
   <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -19538,20 +19538,20 @@
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="Y66:Y87"/>
     <mergeCell ref="X49:X65"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="X24:X48"/>
+    <mergeCell ref="X66:X87"/>
+    <mergeCell ref="Y49:Y65"/>
     <mergeCell ref="X3:X23"/>
-    <mergeCell ref="X66:X87"/>
     <mergeCell ref="Y3:Y23"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="Y66:Y87"/>
-    <mergeCell ref="Y49:Y65"/>
+    <mergeCell ref="X24:X48"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="Y24:Y48"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -22975,11 +22975,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="U1:U2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23403,7 +23403,7 @@
     <row r="5">
       <c r="A5" s="119" t="inlineStr">
         <is>
-          <t>24.843869712864468</t>
+          <t>24.84386971286458</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
     <row r="9">
       <c r="A9" s="119" t="inlineStr">
         <is>
-          <t>38.418842379628565</t>
+          <t>38.418842379628536</t>
         </is>
       </c>
     </row>
@@ -23452,7 +23452,7 @@
     <row r="12">
       <c r="A12" s="119" t="inlineStr">
         <is>
-          <t>24.899878610859567</t>
+          <t>24.89987861085968</t>
         </is>
       </c>
     </row>
@@ -23480,7 +23480,7 @@
     <row r="16">
       <c r="A16" s="119" t="inlineStr">
         <is>
-          <t>27.539085678257045</t>
+          <t>27.53908567825716</t>
         </is>
       </c>
     </row>
@@ -23501,7 +23501,7 @@
     <row r="19">
       <c r="A19" s="119" t="inlineStr">
         <is>
-          <t>27.031575212465548</t>
+          <t>27.031575212465604</t>
         </is>
       </c>
     </row>
@@ -23550,7 +23550,7 @@
     <row r="26">
       <c r="A26" s="119" t="inlineStr">
         <is>
-          <t>42.51646257549316</t>
+          <t>42.516462575493044</t>
         </is>
       </c>
     </row>
@@ -23571,7 +23571,7 @@
     <row r="29">
       <c r="A29" s="119" t="inlineStr">
         <is>
-          <t>25.10005649465503</t>
+          <t>25.100056494654915</t>
         </is>
       </c>
     </row>
@@ -23592,7 +23592,7 @@
     <row r="32">
       <c r="A32" s="119" t="inlineStr">
         <is>
-          <t>28.812412453148788</t>
+          <t>28.812412453148845</t>
         </is>
       </c>
     </row>
@@ -23613,7 +23613,7 @@
     <row r="35">
       <c r="A35" s="119" t="inlineStr">
         <is>
-          <t>24.573109671209856</t>
+          <t>24.57310967120997</t>
         </is>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
     <row r="38">
       <c r="A38" s="119" t="inlineStr">
         <is>
-          <t>25.596992138801248</t>
+          <t>25.596992138801035</t>
         </is>
       </c>
     </row>
@@ -23669,21 +23669,21 @@
     <row r="43">
       <c r="A43" s="119" t="inlineStr">
         <is>
-          <t>25.09964637447323</t>
+          <t>25.099646374473345</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="119" t="inlineStr">
         <is>
-          <t>19.65597562006638</t>
+          <t>19.655975620066435</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="119" t="inlineStr">
         <is>
-          <t>21.394461868106056</t>
+          <t>21.394461868106113</t>
         </is>
       </c>
     </row>
@@ -23704,14 +23704,14 @@
     <row r="48">
       <c r="A48" s="119" t="inlineStr">
         <is>
-          <t>23.409770788571485</t>
+          <t>23.409770788571315</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="119" t="inlineStr">
         <is>
-          <t>24.271599951218427</t>
+          <t>24.27159995121844</t>
         </is>
       </c>
     </row>
@@ -23739,14 +23739,14 @@
     <row r="53">
       <c r="A53" s="119" t="inlineStr">
         <is>
-          <t>26.752453033576835</t>
+          <t>26.75245303357689</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="119" t="inlineStr">
         <is>
-          <t>32.857553789653544</t>
+          <t>32.85755378965356</t>
         </is>
       </c>
     </row>
@@ -23781,7 +23781,7 @@
     <row r="59">
       <c r="A59" s="119" t="inlineStr">
         <is>
-          <t>42.366503415408765</t>
+          <t>42.36650341540865</t>
         </is>
       </c>
     </row>
@@ -23795,14 +23795,14 @@
     <row r="61">
       <c r="A61" s="119" t="inlineStr">
         <is>
-          <t>42.16207733115589</t>
+          <t>42.16207733115588</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="119" t="inlineStr">
         <is>
-          <t>39.57047409643635</t>
+          <t>39.570474096436364</t>
         </is>
       </c>
     </row>
@@ -23830,14 +23830,14 @@
     <row r="66">
       <c r="A66" s="119" t="inlineStr">
         <is>
-          <t>30.264279974864145</t>
+          <t>30.26427997486413</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="119" t="inlineStr">
         <is>
-          <t>31.91744843745105</t>
+          <t>31.917448437450936</t>
         </is>
       </c>
     </row>
@@ -23886,14 +23886,14 @@
     <row r="74">
       <c r="A74" s="119" t="inlineStr">
         <is>
-          <t>41.469870934955175</t>
+          <t>41.46987093495506</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="119" t="inlineStr">
         <is>
-          <t>40.64884815917517</t>
+          <t>40.648848159175124</t>
         </is>
       </c>
     </row>
@@ -23963,14 +23963,14 @@
     <row r="85">
       <c r="A85" s="119" t="inlineStr">
         <is>
-          <t>22.504169297037784</t>
+          <t>22.50416929703767</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="119" t="inlineStr">
         <is>
-          <t>26.01021738155979</t>
+          <t>26.010217381559904</t>
         </is>
       </c>
     </row>
